--- a/biology/Botanique/Aspidistra/Aspidistra.xlsx
+++ b/biology/Botanique/Aspidistra/Aspidistra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspidistra est un genre de plantes de la famille des Liliaceae selon la classification classique, ou de celle des Ruscaceae (ou optionnellement des Asparagaceae) selon la classification phylogénétique.
 Ce genre de plantes monocotylédones contient une soixantaine d'espèces originaires d'Asie.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aspidistra acetabuliformis Y.Wan &amp; C.C.Huang
@@ -607,10 +621,12 @@
           <t>Dans la littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>George Orwell est l'auteur d'un roman titré en français Et vive l'Aspidistra ! (en anglais : Keep the Aspidistra Flying, 1936)[1], dans lequel cette plante (en pot) symbolise la médiocrité d'une certaine Angleterre des années 1930, mais aussi « la convivialité et l'humble désir de vivre ». Le personnage principal, Gordon, manifeste une antipathie viscérale à l'encontre de l'aspidistra, avant d'être vaincu par elle en rentrant dans le rang.
-Alexandre Vialatte commente ce roman dans l'une de ses Chroniques humoristiques, datée de 1960[2], qu'il conclut en ces termes : « L'homme s'agite, l'aspidistra le mène. Et c'est ainsi qu'Allah est grand. »</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>George Orwell est l'auteur d'un roman titré en français Et vive l'Aspidistra ! (en anglais : Keep the Aspidistra Flying, 1936), dans lequel cette plante (en pot) symbolise la médiocrité d'une certaine Angleterre des années 1930, mais aussi « la convivialité et l'humble désir de vivre ». Le personnage principal, Gordon, manifeste une antipathie viscérale à l'encontre de l'aspidistra, avant d'être vaincu par elle en rentrant dans le rang.
+Alexandre Vialatte commente ce roman dans l'une de ses Chroniques humoristiques, datée de 1960, qu'il conclut en ces termes : « L'homme s'agite, l'aspidistra le mène. Et c'est ainsi qu'Allah est grand. »</t>
         </is>
       </c>
     </row>
